--- a/doc/商城需求.xlsx
+++ b/doc/商城需求.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shine/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shine/Documents/GoProject/weshop/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ED2BDC-C336-F347-BC66-0262A37F0633}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5917773-90CB-7D47-8701-C98B255DEE3C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="920" windowWidth="28240" windowHeight="17360" xr2:uid="{F18FBE2A-78BA-614D-AD44-8ED8B4CBD98B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F18FBE2A-78BA-614D-AD44-8ED8B4CBD98B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>小黑裙商城需求</t>
     <rPh sb="0" eb="2">
@@ -49,26 +50,23 @@
   </si>
   <si>
     <t>商品搜索</t>
-    <rPh sb="0" eb="7">
+    <rPh sb="0" eb="4">
+      <t>shang psou s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态Banner</t>
+    <rPh sb="0" eb="2">
+      <t>dong tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品展示</t>
+    <rPh sb="0" eb="2">
       <t>shang p</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>sou s</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态Banner</t>
-    <rPh sb="0" eb="2">
-      <t>dong tai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品展示</t>
-    <rPh sb="0" eb="2">
-      <t>shang p</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,10 +100,7 @@
   <si>
     <t>点击Banner可以跳转，默认只显示5张最新的</t>
     <rPh sb="0" eb="2">
-      <t>dian ji</t>
-    </rPh>
-    <rPh sb="294" eb="296">
-      <t>dian j</t>
+      <t>dian jidian j</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,11 +120,8 @@
   </si>
   <si>
     <t>一级分类名称</t>
-    <rPh sb="0" eb="11">
-      <t>yi ji</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ming c</t>
+    <rPh sb="0" eb="6">
+      <t>yi jiming c</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,6 +370,20 @@
     <t>姓名、手机号、头像、注册日期、推荐人、客户余额、余额明细</t>
     <rPh sb="0" eb="2">
       <t>xing m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <rPh sb="0" eb="2">
+      <t>guan li y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告管理</t>
+    <rPh sb="0" eb="2">
+      <t>guang g</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,16 +439,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -761,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6F3212-8352-3547-A6B3-F0859C17B8A2}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -776,15 +782,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -793,7 +799,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -804,7 +810,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>4</v>
@@ -814,7 +820,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>5</v>
@@ -824,7 +830,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -834,7 +840,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -846,7 +852,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -858,7 +864,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -870,7 +876,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -882,7 +888,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" t="s">
         <v>19</v>
@@ -892,7 +898,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>20</v>
@@ -902,7 +908,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>22</v>
@@ -912,21 +918,21 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
@@ -940,7 +946,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5"/>
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -949,7 +955,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -961,7 +967,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
@@ -973,7 +979,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" t="s">
@@ -981,7 +987,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -993,7 +999,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1005,13 +1011,23 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="48">
-      <c r="A23" s="2"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1027,5 +1043,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>